--- a/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Francois.xlsx
+++ b/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Francois.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17176632-3AB1-4892-BE65-B36B36B5E024}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F24B31-DEF0-4364-8C30-A32C08AF38F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,6 +746,24 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,24 +771,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1086,7 +1086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="79" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="79" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -1141,10 +1141,10 @@
       <c r="C5" s="23">
         <v>0.5</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="40">
         <v>1</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="40">
         <f>SUM(C5:C6)</f>
         <v>0.75</v>
       </c>
@@ -1159,8 +1159,8 @@
       <c r="C6" s="26">
         <v>0.25</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
@@ -1172,10 +1172,10 @@
       <c r="C7" s="11">
         <v>0.5</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="37">
         <v>2</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="37">
         <f>SUM(C7:C12)</f>
         <v>13</v>
       </c>
@@ -1190,10 +1190,10 @@
       <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>43158</v>
       </c>
@@ -1203,8 +1203,8 @@
       <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
@@ -1216,10 +1216,10 @@
       <c r="C10" s="16">
         <v>3</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>43163</v>
       </c>
@@ -1229,10 +1229,10 @@
       <c r="C11" s="16">
         <v>4.5</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43163</v>
       </c>
@@ -1242,10 +1242,10 @@
       <c r="C12" s="14">
         <v>2</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>43164</v>
       </c>
@@ -1255,15 +1255,15 @@
       <c r="C13" s="23">
         <v>1.5</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="40">
         <v>3</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="40">
         <f>SUM(C13:C15)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>43169</v>
       </c>
@@ -1273,10 +1273,10 @@
       <c r="C14" s="29">
         <v>2.5</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24">
         <v>43170</v>
       </c>
@@ -1286,8 +1286,8 @@
       <c r="C15" s="26">
         <v>2</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
@@ -1299,15 +1299,15 @@
       <c r="C16" s="11">
         <v>0.5</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="37">
         <v>4</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="37">
         <f>SUM(C16:C19)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>43171</v>
       </c>
@@ -1317,10 +1317,10 @@
       <c r="C17" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>43176</v>
       </c>
@@ -1330,8 +1330,8 @@
       <c r="C18" s="16">
         <v>5</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
@@ -1343,10 +1343,10 @@
       <c r="C19" s="14">
         <v>1.5</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>43178</v>
       </c>
@@ -1356,10 +1356,10 @@
       <c r="C20" s="23">
         <v>0.5</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="40">
         <v>5</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="40">
         <f>SUM(C20:C23)</f>
         <v>6.5</v>
       </c>
@@ -1374,8 +1374,8 @@
       <c r="C21" s="29">
         <v>1.5</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
@@ -1387,10 +1387,10 @@
       <c r="C22" s="29">
         <v>2</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24">
         <v>43184</v>
       </c>
@@ -1400,10 +1400,10 @@
       <c r="C23" s="26">
         <v>2.5</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>43185</v>
       </c>
@@ -1413,10 +1413,10 @@
       <c r="C24" s="11">
         <v>1.5</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="37">
         <v>6</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="37">
         <f>SUM(C24:C26)</f>
         <v>3.75</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="C25" s="16">
         <v>0.75</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
@@ -1444,8 +1444,8 @@
       <c r="C26" s="14">
         <v>1.5</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30">
@@ -1465,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>43199</v>
       </c>
@@ -1475,10 +1475,10 @@
       <c r="C28" s="11">
         <v>1</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="37">
         <v>7</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="37">
         <f>SUM(C28:C31)</f>
         <v>4.5</v>
       </c>
@@ -1493,10 +1493,10 @@
       <c r="C29" s="16">
         <v>1.5</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+    </row>
+    <row r="30" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>43203</v>
       </c>
@@ -1506,8 +1506,8 @@
       <c r="C30" s="16">
         <v>1.5</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
@@ -1519,8 +1519,8 @@
       <c r="C31" s="14">
         <v>0.5</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
@@ -1532,15 +1532,15 @@
       <c r="C32" s="23">
         <v>0.25</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="40">
         <v>8</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="40">
         <f>SUM(C32:C34)</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>43206</v>
       </c>
@@ -1550,8 +1550,8 @@
       <c r="C33" s="29">
         <v>0.75</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
@@ -1563,10 +1563,10 @@
       <c r="C34" s="26">
         <v>0.25</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>43213</v>
       </c>
@@ -1576,15 +1576,15 @@
       <c r="C35" s="11">
         <v>1.5</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="37">
         <v>9</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="37">
         <f>SUM(C35:C41)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>43218</v>
       </c>
@@ -1594,10 +1594,10 @@
       <c r="C36" s="16">
         <v>0.25</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>43218</v>
       </c>
@@ -1607,10 +1607,10 @@
       <c r="C37" s="16">
         <v>0.5</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+    </row>
+    <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>43218</v>
       </c>
@@ -1620,8 +1620,8 @@
       <c r="C38" s="16">
         <v>2</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
@@ -1633,8 +1633,8 @@
       <c r="C39" s="16">
         <v>0.5</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
@@ -1646,10 +1646,10 @@
       <c r="C40" s="16">
         <v>0.25</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+    </row>
+    <row r="41" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>43219</v>
       </c>
@@ -1659,8 +1659,8 @@
       <c r="C41" s="14">
         <v>3</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
@@ -1672,15 +1672,15 @@
       <c r="C42" s="23">
         <v>2</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="40">
         <v>10</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="40">
         <f>SUM(C42:C48)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="27">
         <v>43221</v>
       </c>
@@ -1690,8 +1690,8 @@
       <c r="C43" s="29">
         <v>5</v>
       </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="27">
@@ -1703,8 +1703,8 @@
       <c r="C44" s="29">
         <v>2</v>
       </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="27">
@@ -1716,10 +1716,10 @@
       <c r="C45" s="34">
         <v>2.5</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="27">
         <v>43226</v>
       </c>
@@ -1729,8 +1729,8 @@
       <c r="C46" s="29">
         <v>4</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
     </row>
     <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="27">
@@ -1742,10 +1742,10 @@
       <c r="C47" s="34">
         <v>0.75</v>
       </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+    </row>
+    <row r="48" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24">
         <v>43226</v>
       </c>
@@ -1755,10 +1755,10 @@
       <c r="C48" s="35">
         <v>1.75</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>43227</v>
       </c>
@@ -1768,15 +1768,15 @@
       <c r="C49" s="11">
         <v>1.5</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="43">
         <v>11</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="37">
         <f>SUM(C49:C66)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>43227</v>
       </c>
@@ -1786,10 +1786,10 @@
       <c r="C50" s="16">
         <v>0.25</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="41"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="44"/>
+      <c r="E50" s="38"/>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>43229</v>
       </c>
@@ -1799,8 +1799,8 @@
       <c r="C51" s="16">
         <v>1</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="41"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
@@ -1812,8 +1812,8 @@
       <c r="C52" s="16">
         <v>1</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="41"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
@@ -1825,8 +1825,8 @@
       <c r="C53" s="16">
         <v>0.75</v>
       </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
@@ -1838,8 +1838,8 @@
       <c r="C54" s="16">
         <v>0.75</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="41"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
@@ -1851,8 +1851,8 @@
       <c r="C55" s="16">
         <v>0.75</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="41"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
@@ -1864,8 +1864,8 @@
       <c r="C56" s="16">
         <v>0.25</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="41"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
@@ -1877,10 +1877,10 @@
       <c r="C57" s="16">
         <v>0.75</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="41"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="44"/>
+      <c r="E57" s="38"/>
+    </row>
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>43230</v>
       </c>
@@ -1890,8 +1890,8 @@
       <c r="C58" s="16">
         <v>1.25</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="41"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
@@ -1903,8 +1903,8 @@
       <c r="C59" s="16">
         <v>0.75</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="41"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="38"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
@@ -1916,10 +1916,10 @@
       <c r="C60" s="18">
         <v>0.5</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="41"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="44"/>
+      <c r="E60" s="38"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>43233</v>
       </c>
@@ -1929,8 +1929,8 @@
       <c r="C61" s="16">
         <v>1.5</v>
       </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="38"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
@@ -1942,8 +1942,8 @@
       <c r="C62" s="16">
         <v>0.5</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="41"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="38"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
@@ -1955,8 +1955,8 @@
       <c r="C63" s="16">
         <v>0.5</v>
       </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="41"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
@@ -1968,8 +1968,8 @@
       <c r="C64" s="17">
         <v>1</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="41"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
@@ -1981,8 +1981,8 @@
       <c r="C65" s="16">
         <v>1</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="41"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
@@ -1994,10 +1994,10 @@
       <c r="C66" s="14">
         <v>1</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="42"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D66" s="45"/>
+      <c r="E66" s="39"/>
+    </row>
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <v>43204</v>
       </c>
@@ -2007,10 +2007,10 @@
       <c r="C67" s="23">
         <v>0.75</v>
       </c>
-      <c r="D67" s="43">
+      <c r="D67" s="40">
         <v>12</v>
       </c>
-      <c r="E67" s="43">
+      <c r="E67" s="40">
         <f>SUM(C67:C82)</f>
         <v>21.75</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="C68" s="29">
         <v>0.75</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="27">
@@ -2038,8 +2038,8 @@
       <c r="C69" s="29">
         <v>0.75</v>
       </c>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="27">
@@ -2051,8 +2051,8 @@
       <c r="C70" s="29">
         <v>0.75</v>
       </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="27">
@@ -2064,8 +2064,8 @@
       <c r="C71" s="29">
         <v>0.5</v>
       </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="27">
@@ -2077,8 +2077,8 @@
       <c r="C72" s="29">
         <v>0.75</v>
       </c>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="27">
@@ -2090,8 +2090,8 @@
       <c r="C73" s="29">
         <v>2.5</v>
       </c>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="27">
@@ -2103,10 +2103,10 @@
       <c r="C74" s="29">
         <v>2.25</v>
       </c>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+    </row>
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="27">
         <v>43236</v>
       </c>
@@ -2116,10 +2116,10 @@
       <c r="C75" s="29">
         <v>0.5</v>
       </c>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-    </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+    </row>
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="27">
         <v>43236</v>
       </c>
@@ -2129,8 +2129,8 @@
       <c r="C76" s="29">
         <v>3</v>
       </c>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="27">
@@ -2142,10 +2142,10 @@
       <c r="C77" s="29">
         <v>0.75</v>
       </c>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+    </row>
+    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="27">
         <v>43237</v>
       </c>
@@ -2155,8 +2155,8 @@
       <c r="C78" s="29">
         <v>1.5</v>
       </c>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="27">
@@ -2168,8 +2168,8 @@
       <c r="C79" s="29">
         <v>2</v>
       </c>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="27">
@@ -2181,8 +2181,8 @@
       <c r="C80" s="29">
         <v>1</v>
       </c>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="27">
@@ -2194,8 +2194,8 @@
       <c r="C81" s="29">
         <v>1.5</v>
       </c>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
     </row>
     <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="36">
@@ -2207,8 +2207,8 @@
       <c r="C82" s="26">
         <v>2.5</v>
       </c>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B83" s="19" t="s">
@@ -2221,15 +2221,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D41"/>
     <mergeCell ref="D49:D66"/>
     <mergeCell ref="E49:E66"/>
     <mergeCell ref="D67:D82"/>
@@ -2246,8 +2237,28 @@
     <mergeCell ref="D42:D48"/>
     <mergeCell ref="E42:E48"/>
     <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L
+________________________________________
+&amp;C
+________________________________________
+&amp;RJournal de travail - François Burgener
+________________________________________
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;C&amp;K09-024&amp;P
+</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>